--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H2">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I2">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J2">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.240187666666666</v>
+        <v>2.112132333333333</v>
       </c>
       <c r="N2">
-        <v>9.720562999999999</v>
+        <v>6.336397</v>
       </c>
       <c r="O2">
-        <v>0.09865275843473081</v>
+        <v>0.09680078109791683</v>
       </c>
       <c r="P2">
-        <v>0.1091454159637843</v>
+        <v>0.1001796274503123</v>
       </c>
       <c r="Q2">
-        <v>0.0741020118741111</v>
+        <v>0.1149352011388889</v>
       </c>
       <c r="R2">
-        <v>0.6669181068669999</v>
+        <v>1.03441681025</v>
       </c>
       <c r="S2">
-        <v>0.0001688705548436631</v>
+        <v>0.0005885750526296373</v>
       </c>
       <c r="T2">
-        <v>0.0001868315417114363</v>
+        <v>0.0006091193565818649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H3">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I3">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J3">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.637706333333332</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N3">
         <v>25.913119</v>
       </c>
       <c r="O3">
-        <v>0.2629889512569831</v>
+        <v>0.3958732636044222</v>
       </c>
       <c r="P3">
-        <v>0.2909603232008313</v>
+        <v>0.4096912815746252</v>
       </c>
       <c r="Q3">
-        <v>0.1975414646078889</v>
+        <v>0.4700351863055556</v>
       </c>
       <c r="R3">
-        <v>1.777873181471</v>
+        <v>4.23031667675</v>
       </c>
       <c r="S3">
-        <v>0.0004501758574333471</v>
+        <v>0.002407017012858105</v>
       </c>
       <c r="T3">
-        <v>0.0004980563341158236</v>
+        <v>0.002491034316869555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H4">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I4">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J4">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.343997</v>
+        <v>4.811824666666667</v>
       </c>
       <c r="N4">
-        <v>10.031991</v>
+        <v>14.435474</v>
       </c>
       <c r="O4">
-        <v>0.1018134016252345</v>
+        <v>0.2205299255584317</v>
       </c>
       <c r="P4">
-        <v>0.1126422235666742</v>
+        <v>0.2282275569836723</v>
       </c>
       <c r="Q4">
-        <v>0.07647609672433334</v>
+        <v>0.2618434589444445</v>
       </c>
       <c r="R4">
-        <v>0.6882848705190001</v>
+        <v>2.3565911305</v>
       </c>
       <c r="S4">
-        <v>0.0001742808401485217</v>
+        <v>0.001340881871714124</v>
       </c>
       <c r="T4">
-        <v>0.0001928172622270185</v>
+        <v>0.001387685562447277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H5">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I5">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J5">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.472446999999999</v>
+        <v>2.2077635</v>
       </c>
       <c r="N5">
-        <v>18.944894</v>
+        <v>4.415527</v>
       </c>
       <c r="O5">
-        <v>0.2884039820564274</v>
+        <v>0.1011836369846164</v>
       </c>
       <c r="P5">
-        <v>0.2127189892210772</v>
+        <v>0.06981031173659025</v>
       </c>
       <c r="Q5">
-        <v>0.2166317054076666</v>
+        <v>0.1201391304583333</v>
       </c>
       <c r="R5">
-        <v>1.299790232446</v>
+        <v>0.72083478275</v>
       </c>
       <c r="S5">
-        <v>0.0004936804732248096</v>
+        <v>0.0006152240073686792</v>
       </c>
       <c r="T5">
-        <v>0.0003641253859040612</v>
+        <v>0.0004244656648265334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H6">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I6">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J6">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.150031666666665</v>
+        <v>4.049945999999999</v>
       </c>
       <c r="N6">
-        <v>24.450095</v>
+        <v>12.149838</v>
       </c>
       <c r="O6">
-        <v>0.2481409066266244</v>
+        <v>0.185612392754613</v>
       </c>
       <c r="P6">
-        <v>0.2745330480476329</v>
+        <v>0.1920912222548</v>
       </c>
       <c r="Q6">
-        <v>0.1863885075394444</v>
+        <v>0.2203845615</v>
       </c>
       <c r="R6">
-        <v>1.677496567855</v>
+        <v>1.9834610535</v>
       </c>
       <c r="S6">
-        <v>0.000424759461836755</v>
+        <v>0.001128573784169705</v>
       </c>
       <c r="T6">
-        <v>0.0004699366635287565</v>
+        <v>0.001167966828015021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H7">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I7">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J7">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.240187666666666</v>
+        <v>2.112132333333333</v>
       </c>
       <c r="N7">
-        <v>9.720562999999999</v>
+        <v>6.336397</v>
       </c>
       <c r="O7">
-        <v>0.09865275843473081</v>
+        <v>0.09680078109791683</v>
       </c>
       <c r="P7">
-        <v>0.1091454159637843</v>
+        <v>0.1001796274503123</v>
       </c>
       <c r="Q7">
-        <v>16.35098602386389</v>
+        <v>8.546978637566445</v>
       </c>
       <c r="R7">
-        <v>147.158874214775</v>
+        <v>76.922807738098</v>
       </c>
       <c r="S7">
-        <v>0.03726214730555178</v>
+        <v>0.04376847433669257</v>
       </c>
       <c r="T7">
-        <v>0.0412253304610737</v>
+        <v>0.0452962197555323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H8">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I8">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J8">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.637706333333332</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N8">
         <v>25.913119</v>
       </c>
       <c r="O8">
-        <v>0.2629889512569831</v>
+        <v>0.3958732636044222</v>
       </c>
       <c r="P8">
-        <v>0.2909603232008313</v>
+        <v>0.4096912815746252</v>
       </c>
       <c r="Q8">
-        <v>43.5885294507861</v>
+        <v>34.95344034247179</v>
       </c>
       <c r="R8">
-        <v>392.296765057075</v>
+        <v>314.5809630822461</v>
       </c>
       <c r="S8">
-        <v>0.09933359387972619</v>
+        <v>0.1789941008960077</v>
       </c>
       <c r="T8">
-        <v>0.1098986647226223</v>
+        <v>0.1852419178872882</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H9">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I9">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J9">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.343997</v>
+        <v>4.811824666666667</v>
       </c>
       <c r="N9">
-        <v>10.031991</v>
+        <v>14.435474</v>
       </c>
       <c r="O9">
-        <v>0.1018134016252345</v>
+        <v>0.2205299255584317</v>
       </c>
       <c r="P9">
-        <v>0.1126422235666742</v>
+        <v>0.2282275569836723</v>
       </c>
       <c r="Q9">
-        <v>16.87483992774167</v>
+        <v>19.47158423014623</v>
       </c>
       <c r="R9">
-        <v>151.873559349675</v>
+        <v>175.244258071316</v>
       </c>
       <c r="S9">
-        <v>0.03845595429091606</v>
+        <v>0.09971260849138602</v>
       </c>
       <c r="T9">
-        <v>0.04254611015406385</v>
+        <v>0.1031930926328121</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H10">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I10">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J10">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.472446999999999</v>
+        <v>2.2077635</v>
       </c>
       <c r="N10">
-        <v>18.944894</v>
+        <v>4.415527</v>
       </c>
       <c r="O10">
-        <v>0.2884039820564274</v>
+        <v>0.1011836369846164</v>
       </c>
       <c r="P10">
-        <v>0.2127189892210772</v>
+        <v>0.06981031173659025</v>
       </c>
       <c r="Q10">
-        <v>47.80088823315833</v>
+        <v>8.933960800419667</v>
       </c>
       <c r="R10">
-        <v>286.80532939895</v>
+        <v>53.603764802518</v>
       </c>
       <c r="S10">
-        <v>0.1089331087483406</v>
+        <v>0.0457501826785332</v>
       </c>
       <c r="T10">
-        <v>0.08034611942744596</v>
+        <v>0.03156473329062024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H11">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I11">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J11">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.150031666666665</v>
+        <v>4.049945999999999</v>
       </c>
       <c r="N11">
-        <v>24.450095</v>
+        <v>12.149838</v>
       </c>
       <c r="O11">
-        <v>0.2481409066266244</v>
+        <v>0.185612392754613</v>
       </c>
       <c r="P11">
-        <v>0.2745330480476329</v>
+        <v>0.1920912222548</v>
       </c>
       <c r="Q11">
-        <v>41.12757271643055</v>
+        <v>16.388557382988</v>
       </c>
       <c r="R11">
-        <v>370.148154447875</v>
+        <v>147.497016446892</v>
       </c>
       <c r="S11">
-        <v>0.09372533684774587</v>
+        <v>0.08392464561453017</v>
       </c>
       <c r="T11">
-        <v>0.1036939163070746</v>
+        <v>0.08685404845089678</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H12">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I12">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J12">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.240187666666666</v>
+        <v>2.112132333333333</v>
       </c>
       <c r="N12">
-        <v>9.720562999999999</v>
+        <v>6.336397</v>
       </c>
       <c r="O12">
-        <v>0.09865275843473081</v>
+        <v>0.09680078109791683</v>
       </c>
       <c r="P12">
-        <v>0.1091454159637843</v>
+        <v>0.1001796274503123</v>
       </c>
       <c r="Q12">
-        <v>26.86468432103566</v>
+        <v>10.24105732220722</v>
       </c>
       <c r="R12">
-        <v>241.782158889321</v>
+        <v>92.16951589986499</v>
       </c>
       <c r="S12">
-        <v>0.06122174057433536</v>
+        <v>0.05244373170859462</v>
       </c>
       <c r="T12">
-        <v>0.06773325396099915</v>
+        <v>0.05427428833819818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H13">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I13">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J13">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.637706333333332</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N13">
         <v>25.913119</v>
       </c>
       <c r="O13">
-        <v>0.2629889512569831</v>
+        <v>0.3958732636044222</v>
       </c>
       <c r="P13">
-        <v>0.2909603232008313</v>
+        <v>0.4096912815746252</v>
       </c>
       <c r="Q13">
-        <v>71.61599196553031</v>
+        <v>41.88148834048389</v>
       </c>
       <c r="R13">
-        <v>644.5439276897729</v>
+        <v>376.933395064355</v>
       </c>
       <c r="S13">
-        <v>0.1632051815198236</v>
+        <v>0.2144721456955563</v>
       </c>
       <c r="T13">
-        <v>0.1805636021440932</v>
+        <v>0.2219583293704674</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H14">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I14">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J14">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.343997</v>
+        <v>4.811824666666667</v>
       </c>
       <c r="N14">
-        <v>10.031991</v>
+        <v>14.435474</v>
       </c>
       <c r="O14">
-        <v>0.1018134016252345</v>
+        <v>0.2205299255584317</v>
       </c>
       <c r="P14">
-        <v>0.1126422235666742</v>
+        <v>0.2282275569836723</v>
       </c>
       <c r="Q14">
-        <v>27.725376742733</v>
+        <v>23.33100604448111</v>
       </c>
       <c r="R14">
-        <v>249.528390684597</v>
+        <v>209.97905440033</v>
       </c>
       <c r="S14">
-        <v>0.06318316649416987</v>
+        <v>0.1194764351953316</v>
       </c>
       <c r="T14">
-        <v>0.06990329615038328</v>
+        <v>0.1236467787884129</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H15">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I15">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J15">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.472446999999999</v>
+        <v>2.2077635</v>
       </c>
       <c r="N15">
-        <v>18.944894</v>
+        <v>4.415527</v>
       </c>
       <c r="O15">
-        <v>0.2884039820564274</v>
+        <v>0.1011836369846164</v>
       </c>
       <c r="P15">
-        <v>0.2127189892210772</v>
+        <v>0.06981031173659025</v>
       </c>
       <c r="Q15">
-        <v>78.53690112478299</v>
+        <v>10.70474240678583</v>
       </c>
       <c r="R15">
-        <v>471.2214067486979</v>
+        <v>64.228454440715</v>
       </c>
       <c r="S15">
-        <v>0.1789771928348619</v>
+        <v>0.05481823029871448</v>
       </c>
       <c r="T15">
-        <v>0.1320087444077271</v>
+        <v>0.03782111278114347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H16">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I16">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J16">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.150031666666665</v>
+        <v>4.049945999999999</v>
       </c>
       <c r="N16">
-        <v>24.450095</v>
+        <v>12.149838</v>
       </c>
       <c r="O16">
-        <v>0.2481409066266244</v>
+        <v>0.185612392754613</v>
       </c>
       <c r="P16">
-        <v>0.2745330480476329</v>
+        <v>0.1920912222548</v>
       </c>
       <c r="Q16">
-        <v>67.57263790115165</v>
+        <v>19.63689892119</v>
       </c>
       <c r="R16">
-        <v>608.1537411103649</v>
+        <v>176.73209029071</v>
       </c>
       <c r="S16">
-        <v>0.1539908103170417</v>
+        <v>0.1005591733559131</v>
       </c>
       <c r="T16">
-        <v>0.1703691950770296</v>
+        <v>0.1040692069758882</v>
       </c>
     </row>
   </sheetData>
